--- a/Docs/TestReport.xlsx
+++ b/Docs/TestReport.xlsx
@@ -5,15 +5,16 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB6E8DD-8403-42F0-9B87-A5FB7A188F74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232DB74A-45B3-4B7D-9556-B55EB3237205}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="5370" windowWidth="21015" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Test Report &lt;Project " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1 - Test-Report Horizono " sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2 - Test Cases Horizono" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -48,7 +49,133 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Test Report &lt;Horizono&gt;</t>
+    <t>Test Report Horizono</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Step on Homebutton - Scene1</t>
+  </si>
+  <si>
+    <t>Phone should start and move to the wall. Text bubbles and buttons shall appear.</t>
+  </si>
+  <si>
+    <t>Step on text button - Scene 1</t>
+  </si>
+  <si>
+    <t>Chosen message shall appear on the phone. Phone shall move to the floor and scene shall change.</t>
+  </si>
+  <si>
+    <t>Step on Letterwheel - Scene 2</t>
+  </si>
+  <si>
+    <t>Cypherwheel shall move to the chosen letter and message shall encrypt. Scene shall change after encryption</t>
+  </si>
+  <si>
+    <t>Step on Startbutton - Scene 3</t>
+  </si>
+  <si>
+    <t>Startbutton shall disapear, Countdown shall start and Game shall start. Passed time shall appear on wall. Packets and Slots shall appear on floor.</t>
+  </si>
+  <si>
+    <t>Step on Packet - Scene 3</t>
+  </si>
+  <si>
+    <t>Packet shall stick on the person while the person stands or moves.</t>
+  </si>
+  <si>
+    <t>Jump away from Packet - Scene 3</t>
+  </si>
+  <si>
+    <t>Packet shall detach from the person and stand still. Packet shall attach again to any other person, who steps on the packet.</t>
+  </si>
+  <si>
+    <t>Bring Packet to slot - Scene 3</t>
+  </si>
+  <si>
+    <t>Packet shall dissapear, if the packet collides with the slot and the color of the packet matches the color of the slot. Points shall increase (progress bar).</t>
+  </si>
+  <si>
+    <t>Packet collides with black hole - Scene 3</t>
+  </si>
+  <si>
+    <t>Packet shall dissapear and spawn again later on. Points shall not increase.</t>
+  </si>
+  <si>
+    <t>Bring 30 Packets to slots - Scene 3</t>
+  </si>
+  <si>
+    <t>Game shall end. No packets shall spawn anymore. Points shall be written to csv-file Scene shall change.</t>
+  </si>
+  <si>
+    <t>Continue with scene 4</t>
+  </si>
+  <si>
+    <t>Simulation of the transmitted packets to satellites and message tower shall work. Scene shall change after a specific amount of time.</t>
+  </si>
+  <si>
+    <t>Continue with scene 5</t>
+  </si>
+  <si>
+    <t>Leaderboard shall be shown. Scene shall change after a specific amount of time.</t>
+  </si>
+  <si>
+    <t>Continue with scene 6</t>
+  </si>
+  <si>
+    <t>The encrypted message shall be decrypted to the origin message.</t>
+  </si>
+  <si>
+    <t>Check Synchronization</t>
+  </si>
+  <si>
+    <t>Wall and Floor instance shall run synchronously. Delay between both instances shall not be visible.</t>
+  </si>
+  <si>
+    <t>Result Local</t>
+  </si>
+  <si>
+    <t>Result DeepSpace</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Note DeepSpace</t>
+  </si>
+  <si>
+    <t>Note Local</t>
+  </si>
+  <si>
+    <t>Cannot check Syncronization on local device</t>
+  </si>
+  <si>
+    <t>Due to Syncronization error points are not increased in progress bar.</t>
+  </si>
+  <si>
+    <t>Forgot to merge blackhole into build project</t>
+  </si>
+  <si>
+    <t>Synchronization failed</t>
+  </si>
+  <si>
+    <t>Works local, but not in DeepSpace</t>
+  </si>
+  <si>
+    <t>Syncronization failed</t>
   </si>
 </sst>
 </file>
@@ -58,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -75,8 +202,14 @@
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +222,32 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,13 +300,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -173,6 +386,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -288,7 +537,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$B$2</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -377,69 +626,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$B$3:$B$22</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>77</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,7 +650,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$C$2</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -550,7 +745,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$C$3:$C$22</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -558,60 +753,6 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -628,7 +769,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$D$2</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -723,69 +864,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1 - Test Report &lt;Project '!$D$3:$D$22</c:f>
+              <c:f>'Sheet 1 - Test-Report Horizono '!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2116,9 +2203,9 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2154,396 +2241,166 @@
     </row>
     <row r="3" spans="1:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>40702</v>
+        <v>42840</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D22" si="0">E3-C3-B3</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A22" si="1">A3+7</f>
-        <v>40709</v>
+        <v>42841</v>
       </c>
       <c r="B4" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>E4-C4-B4</f>
+        <v>1</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E17" si="2">E3+3</f>
-        <v>38</v>
+        <f>E3</f>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <f t="shared" si="1"/>
-        <v>40716</v>
-      </c>
-      <c r="B5" s="6">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <f t="shared" si="1"/>
-        <v>40723</v>
-      </c>
-      <c r="B6" s="6">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <f t="shared" si="1"/>
-        <v>40730</v>
-      </c>
-      <c r="B7" s="6">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>40737</v>
-      </c>
-      <c r="B8" s="6">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <f t="shared" si="1"/>
-        <v>40744</v>
-      </c>
-      <c r="B9" s="6">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>40751</v>
-      </c>
-      <c r="B10" s="6">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <f t="shared" si="1"/>
-        <v>40758</v>
-      </c>
-      <c r="B11" s="6">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>40765</v>
-      </c>
-      <c r="B12" s="6">
-        <v>51</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <f t="shared" si="1"/>
-        <v>40772</v>
-      </c>
-      <c r="B13" s="6">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>40779</v>
-      </c>
-      <c r="B14" s="6">
-        <v>55</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <f t="shared" si="1"/>
-        <v>40786</v>
-      </c>
-      <c r="B15" s="6">
-        <v>57</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <f t="shared" si="1"/>
-        <v>40793</v>
-      </c>
-      <c r="B16" s="6">
-        <v>57</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <f t="shared" si="1"/>
-        <v>40800</v>
-      </c>
-      <c r="B17" s="6">
-        <v>58</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <f t="shared" si="1"/>
-        <v>40807</v>
-      </c>
-      <c r="B18" s="6">
-        <v>65</v>
-      </c>
-      <c r="C18" s="6">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E18" s="6">
-        <v>77</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <f t="shared" si="1"/>
-        <v>40814</v>
-      </c>
-      <c r="B19" s="6">
-        <v>70</v>
-      </c>
-      <c r="C19" s="6">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="6">
-        <v>77</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <f t="shared" si="1"/>
-        <v>40821</v>
-      </c>
-      <c r="B20" s="6">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>77</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <f t="shared" si="1"/>
-        <v>40828</v>
-      </c>
-      <c r="B21" s="6">
-        <v>74</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>77</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>40835</v>
-      </c>
-      <c r="B22" s="6">
-        <v>77</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>77</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2556,4 +2413,358 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D0206-3309-434D-A3D5-D07EFA448F3C}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>